--- a/Testing Pinnalce Git.xlsx
+++ b/Testing Pinnalce Git.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russel.sese\Documents\GitHub\xtrail-private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DFACDF-3F13-4EEE-BA7E-A6E52623BB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7987F5A-9B99-428C-963C-6E9E837A4DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{BBE2BE47-5DBD-4094-8F17-0EDD767F57B6}"/>
+    <workbookView xWindow="1500" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{BBE2BE47-5DBD-4094-8F17-0EDD767F57B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Testing Pinnalce Git</t>
+  </si>
+  <si>
+    <t>Testing Pinnalce 1234</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E9DD3E-4178-4000-A403-AACDB5CF091A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +403,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Pinnalce Git.xlsx
+++ b/Testing Pinnalce Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russel.sese\Documents\GitHub\xtrail-private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7987F5A-9B99-428C-963C-6E9E837A4DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241FF38-5FD6-434D-AF0F-D3267452D558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{BBE2BE47-5DBD-4094-8F17-0EDD767F57B6}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Testing Pinnalce Git</t>
   </si>
   <si>
     <t>Testing Pinnalce 1234</t>
+  </si>
+  <si>
+    <t>Added this line</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E9DD3E-4178-4000-A403-AACDB5CF091A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +411,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Pinnalce Git.xlsx
+++ b/Testing Pinnalce Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russel.sese\Documents\GitHub\xtrail-private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241FF38-5FD6-434D-AF0F-D3267452D558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A36DC7-91AD-4ACB-8013-50A87DD8FBC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{BBE2BE47-5DBD-4094-8F17-0EDD767F57B6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Testing Pinnalce Git</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Added this line</t>
+  </si>
+  <si>
+    <t>Added this line again</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E9DD3E-4178-4000-A403-AACDB5CF091A}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +419,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
